--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -6,7 +6,8 @@
     <sheet state="visible" name="Usage" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Verbit" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Template" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Unit 1 - test" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Unit 0 - test unit" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Unit 1 - add more here!" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="318">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
   <si>
-    <t>Verbit: A list of verbs and their translations.  These are referred to by the program to translate sentences</t>
+    <t>Verbit: A list of verbs and their translations.  These are referred to by the program to share English translations of the sentences</t>
   </si>
   <si>
     <t>Template: This is an example of how "units" should be constructed.</t>
@@ -34,7 +35,7 @@
     <t>Please do not use ### anywhere in sentences other than to replace missing verbs (or nouns, if we get there)</t>
   </si>
   <si>
-    <t>For kirjakieli tai puhekieli - let's focus on kirjakieli initially, but this is here in case we want to change at some point</t>
+    <t>kirjakieli tai puhekieli - let's focus on kirjakieli initially, but this is here in case we want to change at some point (or allow us to select to practice one or the other)</t>
   </si>
   <si>
     <t>Infinitive</t>
@@ -454,7 +455,7 @@
     <t>To rise / arise</t>
   </si>
   <si>
-    <t>Nousta ylös</t>
+    <t>nousta ylös</t>
   </si>
   <si>
     <t>To get up</t>
@@ -526,12 +527,6 @@
     <t>to take, to remove</t>
   </si>
   <si>
-    <t>Paljonko se maksaa?</t>
-  </si>
-  <si>
-    <t>How much does it cost?</t>
-  </si>
-  <si>
     <t>pelata</t>
   </si>
   <si>
@@ -814,7 +809,7 @@
     <t>Unit number</t>
   </si>
   <si>
-    <t>Number (integer, positive) of the unit</t>
+    <t>Number of the unit (can include text, if you want)</t>
   </si>
   <si>
     <t>Unit name</t>
@@ -832,7 +827,7 @@
     <t>Update date</t>
   </si>
   <si>
-    <t>2022.01.27</t>
+    <t>2022.01.29</t>
   </si>
   <si>
     <t>Other info</t>
@@ -841,6 +836,9 @@
     <t>Created by, notes, etc.</t>
   </si>
   <si>
+    <t>ID (unique)</t>
+  </si>
+  <si>
     <t>Puhekieli tai kirjakieli</t>
   </si>
   <si>
@@ -856,6 +854,9 @@
     <t>English translation of sentence</t>
   </si>
   <si>
+    <t>UX-1</t>
+  </si>
+  <si>
     <t>kirjakieli</t>
   </si>
   <si>
@@ -868,7 +869,19 @@
     <t>I love this!</t>
   </si>
   <si>
-    <t>Test unit</t>
+    <t>UX-2</t>
+  </si>
+  <si>
+    <t>Minun ei tarvitse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[minä] ### lukea tenttin </t>
+  </si>
+  <si>
+    <t>I do not need to study for the test</t>
+  </si>
+  <si>
+    <t>Test unit - here for QA work, really.  Use other units for real practice.</t>
   </si>
   <si>
     <t>A unit to test functioning of the program</t>
@@ -877,6 +890,9 @@
     <t xml:space="preserve">by MP. </t>
   </si>
   <si>
+    <t>U0-1</t>
+  </si>
+  <si>
     <t>asun</t>
   </si>
   <si>
@@ -886,6 +902,9 @@
     <t>I live in Finland</t>
   </si>
   <si>
+    <t>U0-2</t>
+  </si>
+  <si>
     <t>asuu</t>
   </si>
   <si>
@@ -895,6 +914,9 @@
     <t>She lives in Finland</t>
   </si>
   <si>
+    <t>U0-3</t>
+  </si>
+  <si>
     <t>menet</t>
   </si>
   <si>
@@ -904,6 +926,9 @@
     <t>You are going to campus.</t>
   </si>
   <si>
+    <t>U0-4</t>
+  </si>
+  <si>
     <t>kävimme</t>
   </si>
   <si>
@@ -913,13 +938,37 @@
     <t>We went to the movies.</t>
   </si>
   <si>
-    <t>Minun ei tarvitse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[minä] ### lukea tenttin </t>
-  </si>
-  <si>
-    <t>I do not need to study for the test</t>
+    <t>U0-5</t>
+  </si>
+  <si>
+    <t>U0-6</t>
+  </si>
+  <si>
+    <t>puhekieli</t>
+  </si>
+  <si>
+    <t>oon</t>
+  </si>
+  <si>
+    <t>Mä ### onnellinen</t>
+  </si>
+  <si>
+    <t>I am happy.</t>
+  </si>
+  <si>
+    <t>First real unit</t>
+  </si>
+  <si>
+    <t>Simple sentences</t>
+  </si>
+  <si>
+    <t>U1-1</t>
+  </si>
+  <si>
+    <t>U1-2</t>
+  </si>
+  <si>
+    <t>U1-3</t>
   </si>
 </sst>
 </file>
@@ -979,6 +1028,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2113,15 +2166,15 @@
         <v>224</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="112">
@@ -2266,14 +2319,6 @@
       </c>
       <c r="B129" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2291,97 +2336,123 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="42.0"/>
-    <col customWidth="1" min="5" max="5" width="46.43"/>
+    <col customWidth="1" min="1" max="2" width="17.71"/>
+    <col customWidth="1" min="4" max="4" width="24.29"/>
+    <col customWidth="1" min="5" max="5" width="42.0"/>
+    <col customWidth="1" min="6" max="6" width="46.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2398,15 +2469,216 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.86"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="42.0"/>
-    <col customWidth="1" min="5" max="5" width="46.43"/>
+    <col customWidth="1" min="1" max="2" width="16.29"/>
+    <col customWidth="1" min="4" max="4" width="24.29"/>
+    <col customWidth="1" min="5" max="5" width="42.0"/>
+    <col customWidth="1" min="6" max="6" width="46.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>265</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="16.29"/>
+    <col customWidth="1" min="4" max="4" width="24.29"/>
+    <col customWidth="1" min="5" max="5" width="42.0"/>
+    <col customWidth="1" min="6" max="6" width="46.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -2414,136 +2686,114 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>301</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -15,18 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="342">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
   <si>
+    <t>Design idea:  A program that presents setnences with one gap in them, along with hints, and then prompts the user to type the correct word(s) to fill the gap</t>
+  </si>
+  <si>
+    <t>Key: Only one word or phrase, in one part of the sentence, can be missing</t>
+  </si>
+  <si>
+    <t>These words can be verbs, nouns (not implemented yet), or other phrases - but only one of those three.</t>
+  </si>
+  <si>
     <t>Verbit: A list of verbs and their translations.  These are referred to by the program to share English translations of the sentences</t>
   </si>
   <si>
+    <t>If you use a verb not in this list in a unit, you must add it to the list!</t>
+  </si>
+  <si>
+    <t>When verbs are missing, the program will show the verb infinitive and its translation (pulling the translation from this table)</t>
+  </si>
+  <si>
     <t>Template: This is an example of how "units" should be constructed.</t>
   </si>
   <si>
-    <t>Each unit consists of a set of sentences along with a correctly conjugated verb.</t>
+    <t>Each unit consists of a set of sentences with a single gap missing, along with the correct answer for the gap.</t>
+  </si>
+  <si>
+    <t>Units have either a verb or another phrase missing - not both.</t>
   </si>
   <si>
     <t>Units can have as many or as few sentences as you want</t>
@@ -35,7 +53,7 @@
     <t>Please do not use ### anywhere in sentences other than to replace missing verbs (or nouns, if we get there)</t>
   </si>
   <si>
-    <t>kirjakieli tai puhekieli - let's focus on kirjakieli initially, but this is here in case we want to change at some point (or allow us to select to practice one or the other)</t>
+    <t>kirjakieli tai puhekieli - brings up a warning when sentences are in puhekieli, and also lets users select one or the other (not implemented yet)</t>
   </si>
   <si>
     <t>Infinitive</t>
@@ -842,13 +860,19 @@
     <t>Puhekieli tai kirjakieli</t>
   </si>
   <si>
+    <t>Type of thing missing</t>
+  </si>
+  <si>
     <t>Verb (infinitive)</t>
   </si>
   <si>
-    <t>Verb correctly conjugated</t>
-  </si>
-  <si>
-    <t>Lause (replace verb with ###)</t>
+    <t>If not a verb, translation or hint here (optional)</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Lause (replace verb or phrase with ###)</t>
   </si>
   <si>
     <t>English translation of sentence</t>
@@ -860,6 +884,9 @@
     <t>kirjakieli</t>
   </si>
   <si>
+    <t>verb</t>
+  </si>
+  <si>
     <t>rakastan</t>
   </si>
   <si>
@@ -881,6 +908,54 @@
     <t>I do not need to study for the test</t>
   </si>
   <si>
+    <t>UX-3</t>
+  </si>
+  <si>
+    <t>puhekieli</t>
+  </si>
+  <si>
+    <t>oon</t>
+  </si>
+  <si>
+    <t>Mä ### iloinen</t>
+  </si>
+  <si>
+    <t>I am happy.</t>
+  </si>
+  <si>
+    <t>UX-4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>sohva_ a___</t>
+  </si>
+  <si>
+    <t>sohvan alla</t>
+  </si>
+  <si>
+    <t>Kissä on ###</t>
+  </si>
+  <si>
+    <t>The cat is under the couch</t>
+  </si>
+  <si>
+    <t>UX-5</t>
+  </si>
+  <si>
+    <t>kaapi_ pää___</t>
+  </si>
+  <si>
+    <t>kaapin päällä</t>
+  </si>
+  <si>
+    <t>Avain oli ###</t>
+  </si>
+  <si>
+    <t>The key was on top of the cabinet</t>
+  </si>
+  <si>
     <t>Test unit - here for QA work, really.  Use other units for real practice.</t>
   </si>
   <si>
@@ -944,16 +1019,13 @@
     <t>U0-6</t>
   </si>
   <si>
-    <t>puhekieli</t>
-  </si>
-  <si>
-    <t>oon</t>
-  </si>
-  <si>
     <t>Mä ### onnellinen</t>
   </si>
   <si>
-    <t>I am happy.</t>
+    <t>U0-7</t>
+  </si>
+  <si>
+    <t>U0-8</t>
   </si>
   <si>
     <t>First real unit</t>
@@ -1249,18 +1321,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1272,6 +1349,36 @@
     <row r="9">
       <c r="B9" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1291,1034 +1398,1034 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2336,123 +2443,195 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="17.71"/>
-    <col customWidth="1" min="4" max="4" width="24.29"/>
-    <col customWidth="1" min="5" max="5" width="42.0"/>
-    <col customWidth="1" min="6" max="6" width="46.43"/>
+    <col customWidth="1" min="1" max="1" width="13.86"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col customWidth="1" min="5" max="6" width="24.29"/>
+    <col customWidth="1" min="7" max="7" width="42.0"/>
+    <col customWidth="1" min="8" max="8" width="46.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2470,14 +2649,15 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="16.29"/>
-    <col customWidth="1" min="4" max="4" width="24.29"/>
-    <col customWidth="1" min="5" max="5" width="42.0"/>
-    <col customWidth="1" min="6" max="6" width="46.43"/>
+    <col customWidth="1" min="5" max="5" width="17.29"/>
+    <col customWidth="1" min="6" max="6" width="24.29"/>
+    <col customWidth="1" min="7" max="7" width="42.0"/>
+    <col customWidth="1" min="8" max="8" width="46.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -2485,173 +2665,249 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>293</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>297</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>298</v>
+        <v>321</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>305</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>306</v>
+        <v>329</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -2670,15 +2926,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="16.29"/>
-    <col customWidth="1" min="4" max="4" width="24.29"/>
-    <col customWidth="1" min="5" max="5" width="42.0"/>
-    <col customWidth="1" min="6" max="6" width="46.43"/>
+    <col customWidth="1" min="1" max="1" width="12.43"/>
+    <col customWidth="1" min="2" max="2" width="16.0"/>
+    <col customWidth="1" min="5" max="5" width="18.29"/>
+    <col customWidth="1" min="6" max="6" width="10.86"/>
+    <col customWidth="1" min="7" max="7" width="42.0"/>
+    <col customWidth="1" min="8" max="8" width="46.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -2686,114 +2944,132 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>293</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>294</v>
+        <v>317</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>297</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>298</v>
+        <v>321</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>302</v>
+        <v>325</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="Template" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Unit 0 - test unit" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Unit 1 - add more here!" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Unit 2 - sentences of necessity" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="485">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
@@ -824,9 +825,6 @@
     <t>To try</t>
   </si>
   <si>
-    <t>Unit number</t>
-  </si>
-  <si>
     <t>Number of the unit (can include text, if you want)</t>
   </si>
   <si>
@@ -956,7 +954,7 @@
     <t>The key was on top of the cabinet</t>
   </si>
   <si>
-    <t>Test unit - here for QA work, really.  Use other units for real practice.</t>
+    <t xml:space="preserve">Test unit for QA purposes. </t>
   </si>
   <si>
     <t>A unit to test functioning of the program</t>
@@ -1041,6 +1039,438 @@
   </si>
   <si>
     <t>U1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentences of necessisity </t>
+  </si>
+  <si>
+    <t>Always requires the pronoun.</t>
+  </si>
+  <si>
+    <t>2022.01.30</t>
+  </si>
+  <si>
+    <t>U2-1</t>
+  </si>
+  <si>
+    <t>I - include the proper pronoun!</t>
+  </si>
+  <si>
+    <t>Minä haluan</t>
+  </si>
+  <si>
+    <t>### perunoita!</t>
+  </si>
+  <si>
+    <t>I want potatoes!</t>
+  </si>
+  <si>
+    <t>U2-2</t>
+  </si>
+  <si>
+    <t>Minä tarvitsen</t>
+  </si>
+  <si>
+    <t>I need potatoes!</t>
+  </si>
+  <si>
+    <t>U2-3</t>
+  </si>
+  <si>
+    <t>You (singular) - include the proper pronoun</t>
+  </si>
+  <si>
+    <t>Sinä tarvitset</t>
+  </si>
+  <si>
+    <t>You (singular) need potatoes</t>
+  </si>
+  <si>
+    <t>U2-4</t>
+  </si>
+  <si>
+    <t>Michelle - include pronoun</t>
+  </si>
+  <si>
+    <t>Michellen täytyy</t>
+  </si>
+  <si>
+    <t>### saada perunat.</t>
+  </si>
+  <si>
+    <t>Michelle needs to get potatoes</t>
+  </si>
+  <si>
+    <t>U2-5</t>
+  </si>
+  <si>
+    <t>Kissa - include pronoun</t>
+  </si>
+  <si>
+    <t>Kissan ei tarvitse</t>
+  </si>
+  <si>
+    <t>### syödä perunaa.</t>
+  </si>
+  <si>
+    <t>The cat does not need to eat a potato.</t>
+  </si>
+  <si>
+    <t>U2-6</t>
+  </si>
+  <si>
+    <t>We - include the pronoun</t>
+  </si>
+  <si>
+    <t>Meidän pitää</t>
+  </si>
+  <si>
+    <t>### kokata perunoita</t>
+  </si>
+  <si>
+    <t>We need to cook potatoes</t>
+  </si>
+  <si>
+    <t>U2-7</t>
+  </si>
+  <si>
+    <t>Kaupa - include pronoun.  Note the "should"!</t>
+  </si>
+  <si>
+    <t>Kaupan pitäisi</t>
+  </si>
+  <si>
+    <t>### myydä perunoita</t>
+  </si>
+  <si>
+    <t>The store should sell potatoes</t>
+  </si>
+  <si>
+    <t>U2-8</t>
+  </si>
+  <si>
+    <t>You (plural) - include pronoun</t>
+  </si>
+  <si>
+    <t>Teidän ei pitäisi</t>
+  </si>
+  <si>
+    <t>### unohtaa perunoita</t>
+  </si>
+  <si>
+    <t>You (plural) should not forget potatoes</t>
+  </si>
+  <si>
+    <t>U2-9</t>
+  </si>
+  <si>
+    <t>They - include pronoun (and maybe you need another word too?)</t>
+  </si>
+  <si>
+    <t>Heidän on pakko</t>
+  </si>
+  <si>
+    <t>### ostaa perunoita</t>
+  </si>
+  <si>
+    <t>They must buy potaotes (it is the law!)</t>
+  </si>
+  <si>
+    <t>U2-10</t>
+  </si>
+  <si>
+    <t>We - include pronoun (and maybe another word?)</t>
+  </si>
+  <si>
+    <t>Meidän olisi hyvä</t>
+  </si>
+  <si>
+    <t>### pyöräillä järvin ympäri</t>
+  </si>
+  <si>
+    <t>It would be a good idea for us to ride our bikes around the lake.</t>
+  </si>
+  <si>
+    <t>U2-11</t>
+  </si>
+  <si>
+    <t>Meidän on pakko</t>
+  </si>
+  <si>
+    <t>### pyöräillä pyöriäme</t>
+  </si>
+  <si>
+    <t>We must ride bicycles</t>
+  </si>
+  <si>
+    <t>U2-12</t>
+  </si>
+  <si>
+    <t>I - include pronoun (and maybe an extra word?)</t>
+  </si>
+  <si>
+    <t>Minun olisi hyvä</t>
+  </si>
+  <si>
+    <t>### kävellä joka päivä</t>
+  </si>
+  <si>
+    <t>It would be a good idea for me to walk every day</t>
+  </si>
+  <si>
+    <t>U2-13</t>
+  </si>
+  <si>
+    <t>You (singular) - include pronoun (and maybe another word?)</t>
+  </si>
+  <si>
+    <t>Sinun ei ole pakko</t>
+  </si>
+  <si>
+    <t>### laulaa</t>
+  </si>
+  <si>
+    <t>You (singular) must not sing</t>
+  </si>
+  <si>
+    <t>U2-14</t>
+  </si>
+  <si>
+    <t>Matti - include pronoun (and maybe another word?)</t>
+  </si>
+  <si>
+    <t>Mattin ei ole pakko</t>
+  </si>
+  <si>
+    <t>### juosta koska hänellä on polvi kipeä</t>
+  </si>
+  <si>
+    <t>Matti must not run because he has a hurt knee</t>
+  </si>
+  <si>
+    <t>U2-15</t>
+  </si>
+  <si>
+    <t>Pekka - include pronoun</t>
+  </si>
+  <si>
+    <t>Pekkan ei ole pakko</t>
+  </si>
+  <si>
+    <t>### ajaa autoa koska hän on pyöräilijäksi</t>
+  </si>
+  <si>
+    <t>Pekka must not drive because he is the cyclist of the year</t>
+  </si>
+  <si>
+    <t>U2-16</t>
+  </si>
+  <si>
+    <t>She - inclue pronoun (and maybe an extra word?)</t>
+  </si>
+  <si>
+    <t>Hänen olisi hyvä</t>
+  </si>
+  <si>
+    <t>### juoda teeta koska hänellä on kylmä</t>
+  </si>
+  <si>
+    <t>It would be a good idea for her to drink tea, becuase she is cold.</t>
+  </si>
+  <si>
+    <t>U2-17</t>
+  </si>
+  <si>
+    <t>Oppetaja - include pronoun</t>
+  </si>
+  <si>
+    <t>Oppetajan täytyy</t>
+  </si>
+  <si>
+    <t>### nukua</t>
+  </si>
+  <si>
+    <t>The student needs to sleep</t>
+  </si>
+  <si>
+    <t>U2-18</t>
+  </si>
+  <si>
+    <t>Lucca and Kira - include pronoun</t>
+  </si>
+  <si>
+    <t>Luccan ja Kiran täytyy</t>
+  </si>
+  <si>
+    <t>### syödä lihaa.</t>
+  </si>
+  <si>
+    <t>Lucca and Kira need to eat meat</t>
+  </si>
+  <si>
+    <t>U2-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They - include pronoun  </t>
+  </si>
+  <si>
+    <t>Heidän pitää</t>
+  </si>
+  <si>
+    <t>### ostaa kissanruoka</t>
+  </si>
+  <si>
+    <t>They need to buy cat food</t>
+  </si>
+  <si>
+    <t>U2-20</t>
+  </si>
+  <si>
+    <t>Bertie - include pronoun</t>
+  </si>
+  <si>
+    <t>Bertien ei pitäisi</t>
+  </si>
+  <si>
+    <t>### puraista Lucca</t>
+  </si>
+  <si>
+    <t>Bertie should not bite Luuca</t>
+  </si>
+  <si>
+    <t>U2-21</t>
+  </si>
+  <si>
+    <t>We - include pronoun</t>
+  </si>
+  <si>
+    <t>Meidän pitäisi</t>
+  </si>
+  <si>
+    <t>### siivota</t>
+  </si>
+  <si>
+    <t>We should clean</t>
+  </si>
+  <si>
+    <t>U2-22</t>
+  </si>
+  <si>
+    <t>Me tarvitsimme</t>
+  </si>
+  <si>
+    <t>We need potatoes!</t>
+  </si>
+  <si>
+    <t>U2-23</t>
+  </si>
+  <si>
+    <t>Meidän ei tarvitse</t>
+  </si>
+  <si>
+    <t>### ajaa autoa suomessa.</t>
+  </si>
+  <si>
+    <t>We do not need to drive in Finland.</t>
+  </si>
+  <si>
+    <t>U2-24</t>
+  </si>
+  <si>
+    <t>Kaikki - include pronoun</t>
+  </si>
+  <si>
+    <t>Kaikkien pitäisi</t>
+  </si>
+  <si>
+    <t>### puhua suomea</t>
+  </si>
+  <si>
+    <t>Everyone should speak Finnish.</t>
+  </si>
+  <si>
+    <t>U2-25</t>
+  </si>
+  <si>
+    <t>Michellen pitää</t>
+  </si>
+  <si>
+    <t>### lisätä maitoa ja sokeria kahviinsa</t>
+  </si>
+  <si>
+    <t>Michelle needs to add milk and sugar to her coffee</t>
+  </si>
+  <si>
+    <t>U2-26</t>
+  </si>
+  <si>
+    <t>She - include pronoun</t>
+  </si>
+  <si>
+    <t>Hänen täytyy</t>
+  </si>
+  <si>
+    <t>### korjata pyoränsä</t>
+  </si>
+  <si>
+    <t>She needs to fix her bike</t>
+  </si>
+  <si>
+    <t>U2-27</t>
+  </si>
+  <si>
+    <t>They - include pronoun</t>
+  </si>
+  <si>
+    <t>Heidän täytyy</t>
+  </si>
+  <si>
+    <t>### lainata kirja kirjastosta</t>
+  </si>
+  <si>
+    <t>They need to borrow a book from the library</t>
+  </si>
+  <si>
+    <t>U2-28</t>
+  </si>
+  <si>
+    <t>They - include pronoune</t>
+  </si>
+  <si>
+    <t>He tarvitsevat</t>
+  </si>
+  <si>
+    <t>### kirja kirjastosta</t>
+  </si>
+  <si>
+    <t>They need a book from the library</t>
+  </si>
+  <si>
+    <t>U2-29</t>
+  </si>
+  <si>
+    <t>Kaikki - include pronoun (and another word?)</t>
+  </si>
+  <si>
+    <t>Kaikkien on pakko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">### olla hiljaa yöllä rakennuksessa </t>
+  </si>
+  <si>
+    <t>Everyone must be quiet at night in the building</t>
+  </si>
+  <si>
+    <t>U2-30</t>
+  </si>
+  <si>
+    <t>Teidän pitää</t>
+  </si>
+  <si>
+    <t>### joskus katsoa ulos</t>
+  </si>
+  <si>
+    <t>You (plural) need to look outside sometime</t>
   </si>
 </sst>
 </file>
@@ -1104,6 +1534,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2454,183 +2888,180 @@
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2657,7 +3088,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -2665,250 +3096,250 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +3367,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -2944,132 +3375,1000 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.86"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col customWidth="1" min="5" max="6" width="24.29"/>
+    <col customWidth="1" min="7" max="7" width="42.0"/>
+    <col customWidth="1" min="8" max="8" width="46.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>327</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -7,8 +7,9 @@
     <sheet state="visible" name="Verbit" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Template" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Unit 0 - test unit" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Unit 1 - add more here!" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Unit 2 - sentences of necessity" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Unit 1 - simple" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Unit 2 - necessity" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Unit 3 - postposition" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="752">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
@@ -36,7 +37,10 @@
     <t>If you use a verb not in this list in a unit, you must add it to the list!</t>
   </si>
   <si>
-    <t>When verbs are missing, the program will show the verb infinitive and its translation (pulling the translation from this table)</t>
+    <t>When verbs are set as missing from the sentences, the program will show the verb infinitive and its translation (pulling the translation from this table)</t>
+  </si>
+  <si>
+    <t>Each infinitive must appear only once in the list.</t>
   </si>
   <si>
     <t>Template: This is an example of how "units" should be constructed.</t>
@@ -1026,12 +1030,18 @@
     <t>U0-8</t>
   </si>
   <si>
-    <t>First real unit</t>
-  </si>
-  <si>
     <t>Simple sentences</t>
   </si>
   <si>
+    <t>First real unit - not much development yet</t>
+  </si>
+  <si>
+    <t>2022.02.03</t>
+  </si>
+  <si>
+    <t>by Marc Perkins</t>
+  </si>
+  <si>
     <t>U1-1</t>
   </si>
   <si>
@@ -1041,6 +1051,42 @@
     <t>U1-3</t>
   </si>
   <si>
+    <t>U1-4</t>
+  </si>
+  <si>
+    <t>opiskelemme</t>
+  </si>
+  <si>
+    <t>Me ### kasvatustiedetta</t>
+  </si>
+  <si>
+    <t>We are studying educational sciences.</t>
+  </si>
+  <si>
+    <t>U1-5</t>
+  </si>
+  <si>
+    <t>syömme</t>
+  </si>
+  <si>
+    <t>Te ###.</t>
+  </si>
+  <si>
+    <t>You (plural) are eating</t>
+  </si>
+  <si>
+    <t>U1-6</t>
+  </si>
+  <si>
+    <t>juovät</t>
+  </si>
+  <si>
+    <t>He ###.</t>
+  </si>
+  <si>
+    <t>They are drinking.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sentences of necessisity </t>
   </si>
   <si>
@@ -1050,6 +1096,9 @@
     <t>2022.01.30</t>
   </si>
   <si>
+    <t>Created by Marc Perkins</t>
+  </si>
+  <si>
     <t>U2-1</t>
   </si>
   <si>
@@ -1281,10 +1330,10 @@
     <t>U2-17</t>
   </si>
   <si>
-    <t>Oppetaja - include pronoun</t>
-  </si>
-  <si>
-    <t>Oppetajan täytyy</t>
+    <t>Opiskelija - include pronoun</t>
+  </si>
+  <si>
+    <t>opiskelijan täytyy</t>
   </si>
   <si>
     <t>### nukua</t>
@@ -1471,13 +1520,766 @@
   </si>
   <si>
     <t>You (plural) need to look outside sometime</t>
+  </si>
+  <si>
+    <t>Posposition locaitons</t>
+  </si>
+  <si>
+    <t>A range of sentences to test locative post-positions, with duplication in use of words to prevent memorization of single sentences.  Hints focus solely on non-conjugated nouns, to also practice genitiivi conjugation.</t>
+  </si>
+  <si>
+    <t>by Marc Perkins.</t>
+  </si>
+  <si>
+    <t>U3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pöytä </t>
+  </si>
+  <si>
+    <t>pöydän alta</t>
+  </si>
+  <si>
+    <t>Kissä kävelee ###</t>
+  </si>
+  <si>
+    <t>The cat walks out from under the table</t>
+  </si>
+  <si>
+    <t>U3-2</t>
+  </si>
+  <si>
+    <t>Sohva</t>
+  </si>
+  <si>
+    <t>sohvan alle</t>
+  </si>
+  <si>
+    <t>Kissä juoksee ###</t>
+  </si>
+  <si>
+    <t>The cat runs under the couch</t>
+  </si>
+  <si>
+    <t>U3-3</t>
+  </si>
+  <si>
+    <t>The is under the couch</t>
+  </si>
+  <si>
+    <t>U3-4</t>
+  </si>
+  <si>
+    <t>musta kissa</t>
+  </si>
+  <si>
+    <t>mustan kissan taakse</t>
+  </si>
+  <si>
+    <t>Harmaa kissä jouksee ###</t>
+  </si>
+  <si>
+    <t>The gray cat runs (to) behind the black cat</t>
+  </si>
+  <si>
+    <t>U3-5</t>
+  </si>
+  <si>
+    <t>harmaa kissa</t>
+  </si>
+  <si>
+    <t>harmaan kissan takaa</t>
+  </si>
+  <si>
+    <t>Valkoinen kissa hyppää ###</t>
+  </si>
+  <si>
+    <t>The white cat jumps from behind the gray cat</t>
+  </si>
+  <si>
+    <t>U3-6</t>
+  </si>
+  <si>
+    <t>Tuoli</t>
+  </si>
+  <si>
+    <t>tuolin takana</t>
+  </si>
+  <si>
+    <t>Sinun kirjä on ###</t>
+  </si>
+  <si>
+    <t>Your book is behind the chair</t>
+  </si>
+  <si>
+    <t>U3-7</t>
+  </si>
+  <si>
+    <t>puolin taakse</t>
+  </si>
+  <si>
+    <t>Sinun kirjä putoaa ###</t>
+  </si>
+  <si>
+    <t>Your book falls behind the chair</t>
+  </si>
+  <si>
+    <t>U3-8</t>
+  </si>
+  <si>
+    <t>Puu</t>
+  </si>
+  <si>
+    <t>puun takana</t>
+  </si>
+  <si>
+    <t>Minä seison ###</t>
+  </si>
+  <si>
+    <t>I am standing behind a tree</t>
+  </si>
+  <si>
+    <t>U3-9</t>
+  </si>
+  <si>
+    <t>puun taakse</t>
+  </si>
+  <si>
+    <t>Minä juoksen ###</t>
+  </si>
+  <si>
+    <t>I run (to) behind a tree</t>
+  </si>
+  <si>
+    <t>U3-10</t>
+  </si>
+  <si>
+    <t>Lumi</t>
+  </si>
+  <si>
+    <t>Lumen alla</t>
+  </si>
+  <si>
+    <t>Penkki on lumen alla</t>
+  </si>
+  <si>
+    <t>The bench is under the snow</t>
+  </si>
+  <si>
+    <t>U3-11</t>
+  </si>
+  <si>
+    <t>Huopa (watch consonant gradation!)</t>
+  </si>
+  <si>
+    <t>Huoppan alla</t>
+  </si>
+  <si>
+    <t>Michelle on ###</t>
+  </si>
+  <si>
+    <t>Michelle is under the blanket</t>
+  </si>
+  <si>
+    <t>U3-12</t>
+  </si>
+  <si>
+    <t>Puun alle</t>
+  </si>
+  <si>
+    <t>He juoksevat ###</t>
+  </si>
+  <si>
+    <t>They run (to) under a tree</t>
+  </si>
+  <si>
+    <t>U3-13</t>
+  </si>
+  <si>
+    <t>Pensas</t>
+  </si>
+  <si>
+    <t>pensaan alta</t>
+  </si>
+  <si>
+    <t>Karhu tulee ###</t>
+  </si>
+  <si>
+    <t>A bear comes out from under a bush</t>
+  </si>
+  <si>
+    <t>U3-14</t>
+  </si>
+  <si>
+    <t>Kaupa</t>
+  </si>
+  <si>
+    <t>Kaupan edessä</t>
+  </si>
+  <si>
+    <t>Odotan ###</t>
+  </si>
+  <si>
+    <t>I am waiting in front of the store</t>
+  </si>
+  <si>
+    <t>U3-15</t>
+  </si>
+  <si>
+    <t>Ruoka</t>
+  </si>
+  <si>
+    <t>ruoan edessä</t>
+  </si>
+  <si>
+    <t>Te olette ###</t>
+  </si>
+  <si>
+    <t>You (plural) are in front of the food</t>
+  </si>
+  <si>
+    <t>U3-16</t>
+  </si>
+  <si>
+    <t>meidän edeen</t>
+  </si>
+  <si>
+    <t>Pitkä mies istuu ###</t>
+  </si>
+  <si>
+    <t>A tall man sits down (to) in front of us</t>
+  </si>
+  <si>
+    <t>U3-17</t>
+  </si>
+  <si>
+    <t>meidän eteen</t>
+  </si>
+  <si>
+    <t>Supersankari hyppää ###</t>
+  </si>
+  <si>
+    <t>The superhero jumps in front of you</t>
+  </si>
+  <si>
+    <t>U3-18</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>auton edestä</t>
+  </si>
+  <si>
+    <t>Hyppän ###</t>
+  </si>
+  <si>
+    <t>I jump away from in front of the car</t>
+  </si>
+  <si>
+    <t>U3-19</t>
+  </si>
+  <si>
+    <t>Kirja</t>
+  </si>
+  <si>
+    <t>Kirjan edessä</t>
+  </si>
+  <si>
+    <t>Kissa on ###</t>
+  </si>
+  <si>
+    <t>The cat is in front of the book</t>
+  </si>
+  <si>
+    <t>U3-20</t>
+  </si>
+  <si>
+    <t>kirja</t>
+  </si>
+  <si>
+    <t>kirjan edestä</t>
+  </si>
+  <si>
+    <t>Haluan kissä menee ###</t>
+  </si>
+  <si>
+    <t>I want the cat to move from in front of the book</t>
+  </si>
+  <si>
+    <t>U3-21</t>
+  </si>
+  <si>
+    <t>jääkaapi</t>
+  </si>
+  <si>
+    <t>jääkaapin päällä</t>
+  </si>
+  <si>
+    <t>The cat is on top of the fridge</t>
+  </si>
+  <si>
+    <t>U3-22</t>
+  </si>
+  <si>
+    <t>pöytä</t>
+  </si>
+  <si>
+    <t>pöydän päältä</t>
+  </si>
+  <si>
+    <t>Kissa hyppää ###</t>
+  </si>
+  <si>
+    <t>The cat jumps from the top of the table</t>
+  </si>
+  <si>
+    <t>U3-23</t>
+  </si>
+  <si>
+    <t>kaapi</t>
+  </si>
+  <si>
+    <t>Minun pipo on ###</t>
+  </si>
+  <si>
+    <t>My hat is on top of the cabinet</t>
+  </si>
+  <si>
+    <t>U3-24</t>
+  </si>
+  <si>
+    <t>kivi</t>
+  </si>
+  <si>
+    <t>kiven päältä</t>
+  </si>
+  <si>
+    <t>Putoan ###</t>
+  </si>
+  <si>
+    <t>I fall off the top of the rock</t>
+  </si>
+  <si>
+    <t>U3-25</t>
+  </si>
+  <si>
+    <t>kirjahylly</t>
+  </si>
+  <si>
+    <t>kirjahyllyn päälle</t>
+  </si>
+  <si>
+    <t>Matti heittää omena ###</t>
+  </si>
+  <si>
+    <t>Matti throws the apple (to) on top the bookshelf</t>
+  </si>
+  <si>
+    <t>U3-26</t>
+  </si>
+  <si>
+    <t>sanomalehti</t>
+  </si>
+  <si>
+    <t>sanomalehden päälle</t>
+  </si>
+  <si>
+    <t>He istuvat ###</t>
+  </si>
+  <si>
+    <t>They sit down on top of the newspaper</t>
+  </si>
+  <si>
+    <t>U3-27</t>
+  </si>
+  <si>
+    <t>Kiran ja Bertien välissä</t>
+  </si>
+  <si>
+    <t>Lucca on ###</t>
+  </si>
+  <si>
+    <t>Lucca is between Kira and Bertie</t>
+  </si>
+  <si>
+    <t>U3-28</t>
+  </si>
+  <si>
+    <t>puiston ja kirkon välissä</t>
+  </si>
+  <si>
+    <t>Kauppa on ###</t>
+  </si>
+  <si>
+    <t>The store is between the park and the church</t>
+  </si>
+  <si>
+    <t>U3-29</t>
+  </si>
+  <si>
+    <t>sohva ja pöytä</t>
+  </si>
+  <si>
+    <t>sohvan ja pöydän väliin</t>
+  </si>
+  <si>
+    <t>Kissa kavelee ###</t>
+  </si>
+  <si>
+    <t>The cat walks to between the couch and the table</t>
+  </si>
+  <si>
+    <t>U3-30</t>
+  </si>
+  <si>
+    <t>leipä ja tomaati</t>
+  </si>
+  <si>
+    <t>leivän ja tomaatin väliin</t>
+  </si>
+  <si>
+    <t>Laitan juuston ###</t>
+  </si>
+  <si>
+    <t>I put the cheese between the bread and the tomato</t>
+  </si>
+  <si>
+    <t>U3-31</t>
+  </si>
+  <si>
+    <t>järvi ja metsä</t>
+  </si>
+  <si>
+    <t>järven ja metsän välissä</t>
+  </si>
+  <si>
+    <t>Baana on ###</t>
+  </si>
+  <si>
+    <t>The bike path is between the lake and the forest</t>
+  </si>
+  <si>
+    <t>U3-32</t>
+  </si>
+  <si>
+    <t>puu ja kivi</t>
+  </si>
+  <si>
+    <t>puun ja kiven välistä</t>
+  </si>
+  <si>
+    <t>The bear comes from between the tree and the rock</t>
+  </si>
+  <si>
+    <t>U3-33</t>
+  </si>
+  <si>
+    <t>matto ja lattia</t>
+  </si>
+  <si>
+    <t>maton ja lattian välistä</t>
+  </si>
+  <si>
+    <t>Otan aarrekartan ###</t>
+  </si>
+  <si>
+    <t>I take the treasure map from between the rug and the floor</t>
+  </si>
+  <si>
+    <t>U3-34</t>
+  </si>
+  <si>
+    <t>pullan keskellä</t>
+  </si>
+  <si>
+    <t>Hillo on ###</t>
+  </si>
+  <si>
+    <t>The jam is in the middle of the pulla</t>
+  </si>
+  <si>
+    <t>U3-35</t>
+  </si>
+  <si>
+    <t>kirjän keskellä</t>
+  </si>
+  <si>
+    <t>Kartta on ###</t>
+  </si>
+  <si>
+    <t>The map is in the middle of the book</t>
+  </si>
+  <si>
+    <t>U3-36</t>
+  </si>
+  <si>
+    <t>pullan keskelle</t>
+  </si>
+  <si>
+    <t>Leipuri laitaa hiilon ###</t>
+  </si>
+  <si>
+    <t>The baker puts the jam in the middle of the pulla</t>
+  </si>
+  <si>
+    <t>U3-37</t>
+  </si>
+  <si>
+    <t>pullan keskelta</t>
+  </si>
+  <si>
+    <t>Hillo putoaa ###</t>
+  </si>
+  <si>
+    <t>The jam falls out from the middle of the pulla</t>
+  </si>
+  <si>
+    <t>U3-38</t>
+  </si>
+  <si>
+    <t>metsä</t>
+  </si>
+  <si>
+    <t>metsän keskellä</t>
+  </si>
+  <si>
+    <t>Me olemme ###</t>
+  </si>
+  <si>
+    <t>We are in the middle of the forest</t>
+  </si>
+  <si>
+    <t>Google translate differs</t>
+  </si>
+  <si>
+    <t>U3-39</t>
+  </si>
+  <si>
+    <t>lattia</t>
+  </si>
+  <si>
+    <t>lattia keskelle</t>
+  </si>
+  <si>
+    <t>Laitamme maton ###</t>
+  </si>
+  <si>
+    <t>We put the rug in the middle of the floor</t>
+  </si>
+  <si>
+    <t>U3-40</t>
+  </si>
+  <si>
+    <t>metsän keskeltä</t>
+  </si>
+  <si>
+    <t>He tulevat ###</t>
+  </si>
+  <si>
+    <t>They came from the middle of the forest</t>
+  </si>
+  <si>
+    <t>U3-41</t>
+  </si>
+  <si>
+    <t>järvi</t>
+  </si>
+  <si>
+    <t>järven vieressä</t>
+  </si>
+  <si>
+    <t>Sinun asunto on ###</t>
+  </si>
+  <si>
+    <t>Your apartment is next to the lake</t>
+  </si>
+  <si>
+    <t>U3-42</t>
+  </si>
+  <si>
+    <t>minun viereen</t>
+  </si>
+  <si>
+    <t>Kissa istuu ###</t>
+  </si>
+  <si>
+    <t>The cat sits down next to me</t>
+  </si>
+  <si>
+    <t>U3-43</t>
+  </si>
+  <si>
+    <t>kirkko</t>
+  </si>
+  <si>
+    <t>kirkon viressä</t>
+  </si>
+  <si>
+    <t>The store is next to the church</t>
+  </si>
+  <si>
+    <t>U3-44</t>
+  </si>
+  <si>
+    <t>sohva</t>
+  </si>
+  <si>
+    <t>sohvan viereen</t>
+  </si>
+  <si>
+    <t>Me laitamme lampun ###</t>
+  </si>
+  <si>
+    <t>We are putting the lamp next to the couch</t>
+  </si>
+  <si>
+    <t>U3-45</t>
+  </si>
+  <si>
+    <t>järven vierestä</t>
+  </si>
+  <si>
+    <t>Sinun aloitan ###</t>
+  </si>
+  <si>
+    <t>You are starting from next to the lake</t>
+  </si>
+  <si>
+    <t>U3-46</t>
+  </si>
+  <si>
+    <t>kaappi</t>
+  </si>
+  <si>
+    <t>kaapin vierestä</t>
+  </si>
+  <si>
+    <t>Kissä tulee ###</t>
+  </si>
+  <si>
+    <t>The cat comes from next to the cabinet</t>
+  </si>
+  <si>
+    <t>U3-47</t>
+  </si>
+  <si>
+    <t>sisälle</t>
+  </si>
+  <si>
+    <t>Kissä haluaa mennä ###</t>
+  </si>
+  <si>
+    <t>The cat wants to go inside</t>
+  </si>
+  <si>
+    <t>U3-48</t>
+  </si>
+  <si>
+    <t>ulos</t>
+  </si>
+  <si>
+    <t>The cat wants to go outside</t>
+  </si>
+  <si>
+    <t>U3-49</t>
+  </si>
+  <si>
+    <t>sisään ulkoa</t>
+  </si>
+  <si>
+    <t>Kissä haluaa tulla ###</t>
+  </si>
+  <si>
+    <t>The cat wants to come inside from outside</t>
+  </si>
+  <si>
+    <t>Multi answer</t>
+  </si>
+  <si>
+    <t>U3-50</t>
+  </si>
+  <si>
+    <t>ulos sisältä</t>
+  </si>
+  <si>
+    <t>The cat wants to go outside from inside</t>
+  </si>
+  <si>
+    <t>U3-51</t>
+  </si>
+  <si>
+    <t>lintu</t>
+  </si>
+  <si>
+    <t>sisällä ja lintu on ulkona</t>
+  </si>
+  <si>
+    <t>The cat is inside and the bird is outside</t>
+  </si>
+  <si>
+    <t>U3-52</t>
+  </si>
+  <si>
+    <t>kissa</t>
+  </si>
+  <si>
+    <t>sisällä ja kissa on ulkona</t>
+  </si>
+  <si>
+    <t>Lintu on ###</t>
+  </si>
+  <si>
+    <t>The bird is inside and the cat is outside</t>
+  </si>
+  <si>
+    <t>U3-53</t>
+  </si>
+  <si>
+    <t>Haluan mennä ###</t>
+  </si>
+  <si>
+    <t>I want to go outside</t>
+  </si>
+  <si>
+    <t>multi answer</t>
+  </si>
+  <si>
+    <t>U3-54</t>
+  </si>
+  <si>
+    <t>Sisään</t>
+  </si>
+  <si>
+    <t>I want to go inside</t>
+  </si>
+  <si>
+    <t>U3-55</t>
+  </si>
+  <si>
+    <t>ulkoa</t>
+  </si>
+  <si>
+    <t>Ääni tulee ###</t>
+  </si>
+  <si>
+    <t>The sound comes from outside</t>
+  </si>
+  <si>
+    <t>U3-56</t>
+  </si>
+  <si>
+    <t>sisältä</t>
+  </si>
+  <si>
+    <t>The sound is coming from inside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1487,13 +2289,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1502,11 +2314,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1538,6 +2353,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1785,13 +2604,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+    <row r="10">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1813,6 +2632,11 @@
     <row r="16">
       <c r="B16" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1832,1034 +2656,1034 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2886,182 +3710,182 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3088,7 +3912,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -3096,250 +3920,250 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +4191,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -3375,132 +4199,201 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +4420,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1">
         <v>2.0</v>
@@ -3535,840 +4428,2175 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>484</v>
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.86"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col customWidth="1" min="5" max="6" width="24.29"/>
+    <col customWidth="1" min="7" max="7" width="42.0"/>
+    <col customWidth="1" min="8" max="8" width="46.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="770">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
@@ -61,6 +61,15 @@
     <t>kirjakieli tai puhekieli - brings up a warning when sentences are in puhekieli, and also lets users select one or the other (not implemented yet)</t>
   </si>
   <si>
+    <t>Delete Unit 0 before use</t>
+  </si>
+  <si>
+    <t>If you are using this program for your own purposes, delete Unit 0.</t>
+  </si>
+  <si>
+    <t>Unit 0 contains multiple badly-formatted spreadsheet entries for QA purposes, so will raise multiple warnings and errors (though no crashes, hopefully) on import.</t>
+  </si>
+  <si>
     <t>Infinitive</t>
   </si>
   <si>
@@ -178,6 +187,12 @@
     <t>To smile</t>
   </si>
   <si>
+    <t>hypätä</t>
+  </si>
+  <si>
+    <t>To jump</t>
+  </si>
+  <si>
     <t>ihailla</t>
   </si>
   <si>
@@ -577,7 +592,7 @@
     <t>pitää</t>
   </si>
   <si>
-    <t>to like (and other meanings)</t>
+    <t>to like, to need, and other meanings</t>
   </si>
   <si>
     <t>potkaista</t>
@@ -646,6 +661,12 @@
     <t>To stand / park / wait</t>
   </si>
   <si>
+    <t>seurata</t>
+  </si>
+  <si>
+    <t>To follow</t>
+  </si>
+  <si>
     <t>siivota</t>
   </si>
   <si>
@@ -961,10 +982,13 @@
     <t xml:space="preserve">Test unit for QA purposes. </t>
   </si>
   <si>
-    <t>A unit to test functioning of the program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by MP. </t>
+    <t>A unit to test functioning of the program.  Not intended for actual use in game.</t>
+  </si>
+  <si>
+    <t>2022.02.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Marc Perkins.  Designed for QA purposes to test importing of badly formatting spreadsheet text.  </t>
   </si>
   <si>
     <t>U0-1</t>
@@ -988,66 +1012,96 @@
     <t>Hän ### Ruotsissa</t>
   </si>
   <si>
+    <t>She lives in Sweden</t>
+  </si>
+  <si>
+    <t>U0-3</t>
+  </si>
+  <si>
+    <t>menet</t>
+  </si>
+  <si>
+    <t>Sinä ### kampussiin</t>
+  </si>
+  <si>
+    <t>You are going to campus.</t>
+  </si>
+  <si>
+    <t>U0-4</t>
+  </si>
+  <si>
+    <t>kävimme</t>
+  </si>
+  <si>
+    <t>Me #### elokuvissa</t>
+  </si>
+  <si>
+    <t>We went to the movies.</t>
+  </si>
+  <si>
+    <t>U0-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[minä] #### lukea tenttin </t>
+  </si>
+  <si>
+    <t>U0-6</t>
+  </si>
+  <si>
+    <t>Mä ### onnellinen</t>
+  </si>
+  <si>
+    <t>U0-7</t>
+  </si>
+  <si>
+    <t>Kissä on ##</t>
+  </si>
+  <si>
+    <t>U0-8</t>
+  </si>
+  <si>
+    <t>U0-9</t>
+  </si>
+  <si>
+    <t>oot</t>
+  </si>
+  <si>
+    <t>Sä ### onnellinen</t>
+  </si>
+  <si>
+    <t>asuvat</t>
+  </si>
+  <si>
+    <t>He ### Ruotsissa</t>
+  </si>
+  <si>
+    <t>They live in Sweden</t>
+  </si>
+  <si>
+    <t>U0-11</t>
+  </si>
+  <si>
+    <t>verbi</t>
+  </si>
+  <si>
+    <t>Simple sentences</t>
+  </si>
+  <si>
+    <t>First real unit - not much development yet</t>
+  </si>
+  <si>
+    <t>by Marc Perkins</t>
+  </si>
+  <si>
+    <t>U1-1</t>
+  </si>
+  <si>
+    <t>U1-2</t>
+  </si>
+  <si>
     <t>She lives in Finland</t>
   </si>
   <si>
-    <t>U0-3</t>
-  </si>
-  <si>
-    <t>menet</t>
-  </si>
-  <si>
-    <t>Sinä ### kampussiin</t>
-  </si>
-  <si>
-    <t>You are going to campus.</t>
-  </si>
-  <si>
-    <t>U0-4</t>
-  </si>
-  <si>
-    <t>kävimme</t>
-  </si>
-  <si>
-    <t>Me #### elokuvissa</t>
-  </si>
-  <si>
-    <t>We went to the movies.</t>
-  </si>
-  <si>
-    <t>U0-5</t>
-  </si>
-  <si>
-    <t>U0-6</t>
-  </si>
-  <si>
-    <t>Mä ### onnellinen</t>
-  </si>
-  <si>
-    <t>U0-7</t>
-  </si>
-  <si>
-    <t>U0-8</t>
-  </si>
-  <si>
-    <t>Simple sentences</t>
-  </si>
-  <si>
-    <t>First real unit - not much development yet</t>
-  </si>
-  <si>
-    <t>2022.02.03</t>
-  </si>
-  <si>
-    <t>by Marc Perkins</t>
-  </si>
-  <si>
-    <t>U1-1</t>
-  </si>
-  <si>
-    <t>U1-2</t>
-  </si>
-  <si>
     <t>U1-3</t>
   </si>
   <si>
@@ -1333,7 +1387,7 @@
     <t>Opiskelija - include pronoun</t>
   </si>
   <si>
-    <t>opiskelijan täytyy</t>
+    <t>Opiskelijan täytyy</t>
   </si>
   <si>
     <t>### nukua</t>
@@ -1525,10 +1579,10 @@
     <t>Posposition locaitons</t>
   </si>
   <si>
-    <t>A range of sentences to test locative post-positions, with duplication in use of words to prevent memorization of single sentences.  Hints focus solely on non-conjugated nouns, to also practice genitiivi conjugation.</t>
-  </si>
-  <si>
-    <t>by Marc Perkins.</t>
+    <t>A range of sentences to test locative post-positions.</t>
+  </si>
+  <si>
+    <t>by Marc Perkins.  With duplication in use of words to prevent memorization of single sentences.  Hints focus solely on non-conjugated nouns, to also practice genitiivi conjugation.</t>
   </si>
   <si>
     <t>U3-1</t>
@@ -1660,7 +1714,7 @@
     <t>Lumen alla</t>
   </si>
   <si>
-    <t>Penkki on lumen alla</t>
+    <t>Penkki on ###</t>
   </si>
   <si>
     <t>The bench is under the snow</t>
@@ -2279,7 +2333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2289,6 +2343,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -2314,14 +2372,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2639,6 +2712,21 @@
         <v>13</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2656,895 +2744,895 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>212</v>
+      <c r="A100" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>235</v>
@@ -3552,138 +3640,154 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3710,182 +3814,182 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3912,7 +4016,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -3920,250 +4024,326 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4191,7 +4371,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -4199,201 +4379,201 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>278</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>338</v>
+        <v>280</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>296</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>349</v>
+        <v>296</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>370</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4420,7 +4600,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1">
         <v>2.0</v>
@@ -4428,840 +4608,840 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>438</v>
+        <v>455</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5288,7 +5468,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1">
         <v>3.0</v>
@@ -5296,1307 +5476,1307 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>501</v>
+        <v>278</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>502</v>
+        <v>280</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>282</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>503</v>
+        <v>284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>547</v>
+        <v>564</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>578</v>
+        <v>310</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>596</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>722</v>
+        <v>310</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>727</v>
+        <v>310</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>739</v>
+        <v>761</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>747</v>
+        <v>764</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>765</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -1120,7 +1120,7 @@
     <t>U1-5</t>
   </si>
   <si>
-    <t>syömme</t>
+    <t>syötte</t>
   </si>
   <si>
     <t>Te ###.</t>
@@ -1132,7 +1132,7 @@
     <t>U1-6</t>
   </si>
   <si>
-    <t>juovät</t>
+    <t>juovat</t>
   </si>
   <si>
     <t>He ###.</t>
@@ -1576,7 +1576,7 @@
     <t>You (plural) need to look outside sometime</t>
   </si>
   <si>
-    <t>Posposition locaitons</t>
+    <t>Postposition locaitons</t>
   </si>
   <si>
     <t>A range of sentences to test locative post-positions.</t>
@@ -1660,7 +1660,7 @@
     <t>tuolin takana</t>
   </si>
   <si>
-    <t>Sinun kirjä on ###</t>
+    <t>Sinun kirja on ###</t>
   </si>
   <si>
     <t>Your book is behind the chair</t>
@@ -1672,7 +1672,7 @@
     <t>puolin taakse</t>
   </si>
   <si>
-    <t>Sinun kirjä putoaa ###</t>
+    <t>Sinun kirja putoaa ###</t>
   </si>
   <si>
     <t>Your book falls behind the chair</t>
@@ -1807,7 +1807,7 @@
     <t>U3-17</t>
   </si>
   <si>
-    <t>meidän eteen</t>
+    <t>sinun eteen</t>
   </si>
   <si>
     <t>Supersankari hyppää ###</t>
@@ -2056,7 +2056,7 @@
     <t>U3-35</t>
   </si>
   <si>
-    <t>kirjän keskellä</t>
+    <t>kirjan keskellä</t>
   </si>
   <si>
     <t>Kartta on ###</t>
@@ -2333,7 +2333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2343,10 +2343,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -2372,29 +2368,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -4034,7 +4027,7 @@
       <c r="A3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4042,7 +4035,7 @@
       <c r="A4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4050,7 +4043,7 @@
       <c r="A5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4124,7 +4117,7 @@
       <c r="G9" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4193,7 +4186,7 @@
       <c r="F12" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>341</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -4240,7 +4233,7 @@
       <c r="F14" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>345</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -4271,7 +4264,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4281,38 +4274,38 @@
         <v>296</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>349</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>308</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
@@ -4331,18 +4324,18 @@
       <c r="G17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4381,7 +4374,7 @@
       <c r="A2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4389,7 +4382,7 @@
       <c r="A3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4397,7 +4390,7 @@
       <c r="A4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4405,7 +4398,7 @@
       <c r="A5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4517,7 +4510,7 @@
       <c r="C11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -4540,16 +4533,16 @@
       <c r="C12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>367</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4557,7 +4550,7 @@
       <c r="A13" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4634,7 +4627,7 @@
       <c r="A5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5096,7 +5089,7 @@
       <c r="E24" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>456</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -5478,7 +5471,7 @@
       <c r="A2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>519</v>
       </c>
     </row>
@@ -5486,7 +5479,7 @@
       <c r="A3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5494,7 +5487,7 @@
       <c r="A4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5502,7 +5495,7 @@
       <c r="A5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5755,7 +5748,7 @@
       <c r="F17" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>565</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -5907,7 +5900,7 @@
       <c r="C24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>596</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -6617,7 +6610,7 @@
       <c r="C56" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="1" t="s">
         <v>740</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -6640,7 +6633,7 @@
       <c r="C57" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="1" t="s">
         <v>745</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -6709,7 +6702,7 @@
       <c r="F60" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="1" t="s">
         <v>757</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -6732,7 +6725,7 @@
       <c r="F61" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="1" t="s">
         <v>757</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -6752,7 +6745,7 @@
       <c r="F62" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="1" t="s">
         <v>765</v>
       </c>
       <c r="H62" s="1" t="s">

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -1669,7 +1669,7 @@
     <t>U3-7</t>
   </si>
   <si>
-    <t>puolin taakse</t>
+    <t>tuolin taakse</t>
   </si>
   <si>
     <t>Sinun kirja putoaa ###</t>
@@ -1711,7 +1711,7 @@
     <t>Lumi</t>
   </si>
   <si>
-    <t>Lumen alla</t>
+    <t>lumen alla</t>
   </si>
   <si>
     <t>Penkki on ###</t>
@@ -1726,7 +1726,7 @@
     <t>Huopa (watch consonant gradation!)</t>
   </si>
   <si>
-    <t>Huoppan alla</t>
+    <t>huoppan alla</t>
   </si>
   <si>
     <t>Michelle on ###</t>
@@ -1738,7 +1738,7 @@
     <t>U3-12</t>
   </si>
   <si>
-    <t>Puun alle</t>
+    <t>puun alle</t>
   </si>
   <si>
     <t>He juoksevat ###</t>
@@ -1768,7 +1768,7 @@
     <t>Kaupa</t>
   </si>
   <si>
-    <t>Kaupan edessä</t>
+    <t>kaupan edessä</t>
   </si>
   <si>
     <t>Odotan ###</t>
@@ -2080,7 +2080,7 @@
     <t>U3-37</t>
   </si>
   <si>
-    <t>pullan keskelta</t>
+    <t>pullan keskeltä</t>
   </si>
   <si>
     <t>Hillo putoaa ###</t>
@@ -2113,7 +2113,7 @@
     <t>lattia</t>
   </si>
   <si>
-    <t>lattia keskelle</t>
+    <t>lattian keskelle</t>
   </si>
   <si>
     <t>Laitamme maton ###</t>
@@ -2167,7 +2167,7 @@
     <t>kirkko</t>
   </si>
   <si>
-    <t>kirkon viressä</t>
+    <t>kirkon vieressä</t>
   </si>
   <si>
     <t>The store is next to the church</t>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="780">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
   <si>
-    <t>Design idea:  A program that presents setnences with one gap in them, along with hints, and then prompts the user to type the correct word(s) to fill the gap</t>
+    <t>Design idea:  A program that presents sentences with one gap in them, along with hints, and then prompts the user to type the correct word(s) in Finnish to fill the gap</t>
   </si>
   <si>
     <t>Key: Only one word or phrase, in one part of the sentence, can be missing</t>
@@ -31,10 +31,13 @@
     <t>These words can be verbs, nouns (not implemented yet), or other phrases - but only one of those three.</t>
   </si>
   <si>
-    <t>Verbit: A list of verbs and their translations.  These are referred to by the program to share English translations of the sentences</t>
-  </si>
-  <si>
-    <t>If you use a verb not in this list in a unit, you must add it to the list!</t>
+    <t>The program currently only accpets a single answer for each sentence. Use the hints field to clarify, if needed.</t>
+  </si>
+  <si>
+    <t>Verbit: A list of verbs and their translations.  These are referred to by the program to share the optional English translations of the verbs.</t>
+  </si>
+  <si>
+    <t>If you use a verb not in this list as a correct answer, you must add it to the list!</t>
   </si>
   <si>
     <t>When verbs are set as missing from the sentences, the program will show the verb infinitive and its translation (pulling the translation from this table)</t>
@@ -58,7 +61,7 @@
     <t>Please do not use ### anywhere in sentences other than to replace missing verbs (or nouns, if we get there)</t>
   </si>
   <si>
-    <t>kirjakieli tai puhekieli - brings up a warning when sentences are in puhekieli, and also lets users select one or the other (not implemented yet)</t>
+    <t>kirjakieli tai puhekieli - brings up a warning when sentences are in puhekieli, and also lets users select one or the other to show (not implemented yet)</t>
   </si>
   <si>
     <t>Delete Unit 0 before use</t>
@@ -70,6 +73,18 @@
     <t>Unit 0 contains multiple badly-formatted spreadsheet entries for QA purposes, so will raise multiple warnings and errors (though no crashes, hopefully) on import.</t>
   </si>
   <si>
+    <t>This file is part of Opin Suomea.</t>
+  </si>
+  <si>
+    <t>Opin Suomea is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version.</t>
+  </si>
+  <si>
+    <t>Opin Suomea is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details.</t>
+  </si>
+  <si>
+    <t>You should have received a copy of the GNU General Public License along with Opin Suomea. If not, see &lt;https://www.gnu.org/licenses/&gt;.</t>
+  </si>
+  <si>
     <t>Infinitive</t>
   </si>
   <si>
@@ -922,6 +937,9 @@
     <t>UX-2</t>
   </si>
   <si>
+    <t>Think about what verb to use ...</t>
+  </si>
+  <si>
     <t>Minun ei tarvitse</t>
   </si>
   <si>
@@ -967,99 +985,102 @@
     <t>UX-5</t>
   </si>
   <si>
+    <t>kaapi</t>
+  </si>
+  <si>
+    <t>kaapin päällä</t>
+  </si>
+  <si>
+    <t>Avain oli ###</t>
+  </si>
+  <si>
+    <t>The key was on top of the cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test unit for QA purposes. </t>
+  </si>
+  <si>
+    <t>A unit to test functioning of the program.  Not intended for actual use in game.</t>
+  </si>
+  <si>
+    <t>2022.02.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Marc Perkins.  Designed for QA purposes to test importing of badly formatting spreadsheet text.  </t>
+  </si>
+  <si>
+    <t>U0-1</t>
+  </si>
+  <si>
+    <t>asun</t>
+  </si>
+  <si>
+    <t>Minä ### Suomessa</t>
+  </si>
+  <si>
+    <t>I live in Finland</t>
+  </si>
+  <si>
+    <t>U0-2</t>
+  </si>
+  <si>
+    <t>asuu</t>
+  </si>
+  <si>
+    <t>Hän ### Ruotsissa</t>
+  </si>
+  <si>
+    <t>She lives in Sweden</t>
+  </si>
+  <si>
+    <t>U0-3</t>
+  </si>
+  <si>
+    <t>menet</t>
+  </si>
+  <si>
+    <t>Sinä ### kampussiin</t>
+  </si>
+  <si>
+    <t>You are going to campus.</t>
+  </si>
+  <si>
+    <t>U0-4</t>
+  </si>
+  <si>
+    <t>kävimme</t>
+  </si>
+  <si>
+    <t>Me #### elokuvissa</t>
+  </si>
+  <si>
+    <t>We went to the movies.</t>
+  </si>
+  <si>
+    <t>U0-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[minä] #### lukea tenttin </t>
+  </si>
+  <si>
+    <t>U0-6</t>
+  </si>
+  <si>
+    <t>Mä ### onnellinen</t>
+  </si>
+  <si>
+    <t>U0-7</t>
+  </si>
+  <si>
+    <t>Kissä on ##</t>
+  </si>
+  <si>
+    <t>U0-8</t>
+  </si>
+  <si>
     <t>kaapi_ pää___</t>
   </si>
   <si>
-    <t>kaapin päällä</t>
-  </si>
-  <si>
-    <t>Avain oli ###</t>
-  </si>
-  <si>
-    <t>The key was on top of the cabinet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test unit for QA purposes. </t>
-  </si>
-  <si>
-    <t>A unit to test functioning of the program.  Not intended for actual use in game.</t>
-  </si>
-  <si>
-    <t>2022.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by Marc Perkins.  Designed for QA purposes to test importing of badly formatting spreadsheet text.  </t>
-  </si>
-  <si>
-    <t>U0-1</t>
-  </si>
-  <si>
-    <t>asun</t>
-  </si>
-  <si>
-    <t>Minä ### Suomessa</t>
-  </si>
-  <si>
-    <t>I live in Finland</t>
-  </si>
-  <si>
-    <t>U0-2</t>
-  </si>
-  <si>
-    <t>asuu</t>
-  </si>
-  <si>
-    <t>Hän ### Ruotsissa</t>
-  </si>
-  <si>
-    <t>She lives in Sweden</t>
-  </si>
-  <si>
-    <t>U0-3</t>
-  </si>
-  <si>
-    <t>menet</t>
-  </si>
-  <si>
-    <t>Sinä ### kampussiin</t>
-  </si>
-  <si>
-    <t>You are going to campus.</t>
-  </si>
-  <si>
-    <t>U0-4</t>
-  </si>
-  <si>
-    <t>kävimme</t>
-  </si>
-  <si>
-    <t>Me #### elokuvissa</t>
-  </si>
-  <si>
-    <t>We went to the movies.</t>
-  </si>
-  <si>
-    <t>U0-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[minä] #### lukea tenttin </t>
-  </si>
-  <si>
-    <t>U0-6</t>
-  </si>
-  <si>
-    <t>Mä ### onnellinen</t>
-  </si>
-  <si>
-    <t>U0-7</t>
-  </si>
-  <si>
-    <t>Kissä on ##</t>
-  </si>
-  <si>
-    <t>U0-8</t>
-  </si>
-  <si>
     <t>U0-9</t>
   </si>
   <si>
@@ -1087,7 +1108,10 @@
     <t>Simple sentences</t>
   </si>
   <si>
-    <t>First real unit - not much development yet</t>
+    <t>Example real unit - only a few sentences</t>
+  </si>
+  <si>
+    <t>2022.02.05</t>
   </si>
   <si>
     <t>by Marc Perkins</t>
@@ -1192,7 +1216,7 @@
     <t>U2-4</t>
   </si>
   <si>
-    <t>Michelle - include pronoun</t>
+    <t>Michelle - include pronoun.  Use the "T" verb of necessity.</t>
   </si>
   <si>
     <t>Michellen täytyy</t>
@@ -1207,7 +1231,7 @@
     <t>U2-5</t>
   </si>
   <si>
-    <t>Kissa - include pronoun</t>
+    <t>Kissa - include pronoun.  Use the "T" verb of necessity.</t>
   </si>
   <si>
     <t>Kissan ei tarvitse</t>
@@ -1222,7 +1246,7 @@
     <t>U2-6</t>
   </si>
   <si>
-    <t>We - include the pronoun</t>
+    <t>We - include the pronoun.  Use the "P" verb of necessity.</t>
   </si>
   <si>
     <t>Meidän pitää</t>
@@ -1237,7 +1261,7 @@
     <t>U2-7</t>
   </si>
   <si>
-    <t>Kaupa - include pronoun.  Note the "should"!</t>
+    <t xml:space="preserve">Kaupa - include pronoun.  Note the "should"!   </t>
   </si>
   <si>
     <t>Kaupan pitäisi</t>
@@ -1384,7 +1408,7 @@
     <t>U2-17</t>
   </si>
   <si>
-    <t>Opiskelija - include pronoun</t>
+    <t>Opiskelija - include pronoun. Use the "T" verb of necessity.</t>
   </si>
   <si>
     <t>Opiskelijan täytyy</t>
@@ -1399,7 +1423,7 @@
     <t>U2-18</t>
   </si>
   <si>
-    <t>Lucca and Kira - include pronoun</t>
+    <t>Lucca and Kira - include pronoun. Use the "T" verb of necessity.</t>
   </si>
   <si>
     <t>Luccan ja Kiran täytyy</t>
@@ -1414,7 +1438,7 @@
     <t>U2-19</t>
   </si>
   <si>
-    <t xml:space="preserve">They - include pronoun  </t>
+    <t>They - include pronoun.   Use the "P" verb of necessity.</t>
   </si>
   <si>
     <t>Heidän pitää</t>
@@ -1429,7 +1453,7 @@
     <t>U2-20</t>
   </si>
   <si>
-    <t>Bertie - include pronoun</t>
+    <t xml:space="preserve">Bertie - include pronoun.  </t>
   </si>
   <si>
     <t>Bertien ei pitäisi</t>
@@ -1444,21 +1468,24 @@
     <t>U2-21</t>
   </si>
   <si>
+    <t xml:space="preserve">We - include pronoun.   </t>
+  </si>
+  <si>
+    <t>Meidän pitäisi</t>
+  </si>
+  <si>
+    <t>### siivota</t>
+  </si>
+  <si>
+    <t>We should clean</t>
+  </si>
+  <si>
+    <t>U2-22</t>
+  </si>
+  <si>
     <t>We - include pronoun</t>
   </si>
   <si>
-    <t>Meidän pitäisi</t>
-  </si>
-  <si>
-    <t>### siivota</t>
-  </si>
-  <si>
-    <t>We should clean</t>
-  </si>
-  <si>
-    <t>U2-22</t>
-  </si>
-  <si>
     <t>Me tarvitsimme</t>
   </si>
   <si>
@@ -1495,6 +1522,9 @@
     <t>U2-25</t>
   </si>
   <si>
+    <t>Michelle - include pronoun.   Use the "P" verb of necessity.</t>
+  </si>
+  <si>
     <t>Michellen pitää</t>
   </si>
   <si>
@@ -1507,7 +1537,7 @@
     <t>U2-26</t>
   </si>
   <si>
-    <t>She - include pronoun</t>
+    <t>She - include pronoun. Use the "T" verb of necessity.</t>
   </si>
   <si>
     <t>Hänen täytyy</t>
@@ -1522,7 +1552,7 @@
     <t>U2-27</t>
   </si>
   <si>
-    <t>They - include pronoun</t>
+    <t>They - include pronoun. Use the "T" verb of necessity.</t>
   </si>
   <si>
     <t>Heidän täytyy</t>
@@ -1567,6 +1597,9 @@
     <t>U2-30</t>
   </si>
   <si>
+    <t>You (plural) - include pronoun.   Use the "P" verb of necessity.</t>
+  </si>
+  <si>
     <t>Teidän pitää</t>
   </si>
   <si>
@@ -1576,7 +1609,7 @@
     <t>You (plural) need to look outside sometime</t>
   </si>
   <si>
-    <t>Postposition locaitons</t>
+    <t>Locative postpositions</t>
   </si>
   <si>
     <t>A range of sentences to test locative post-positions.</t>
@@ -1889,9 +1922,6 @@
   </si>
   <si>
     <t>U3-23</t>
-  </si>
-  <si>
-    <t>kaapi</t>
   </si>
   <si>
     <t>Minun pipo on ###</t>
@@ -2654,14 +2684,15 @@
     </row>
     <row r="6">
       <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2675,13 +2706,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="11">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2705,19 +2736,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="18">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2737,1050 +2793,1050 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3807,182 +3863,184 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +4067,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1">
         <v>0.0</v>
@@ -4017,272 +4075,272 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="5"/>
@@ -4309,34 +4367,34 @@
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4422,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1">
         <v>1.0</v>
@@ -4372,201 +4430,201 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4651,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1">
         <v>2.0</v>
@@ -4601,840 +4659,840 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>391</v>
+        <v>501</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>411</v>
+        <v>526</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5519,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1">
         <v>3.0</v>
@@ -5469,1307 +5527,1307 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>624</v>
+        <v>322</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/data/OpinSuomea - Lause tiedot.xlsx
+++ b/data/OpinSuomea - Lause tiedot.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mperkins/Desktop/PycharmProjects/opinsuomea/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14C53CA-5C8A-5440-ACC6-206AA55BDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Usage" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Verbit" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Template" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Unit 0 - test unit" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Unit 1 - simple" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Unit 2 - necessity" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Unit 3 - postposition" sheetId="7" r:id="rId10"/>
+    <sheet name="Usage" sheetId="1" r:id="rId1"/>
+    <sheet name="Verbit" sheetId="2" r:id="rId2"/>
+    <sheet name="Template" sheetId="3" r:id="rId3"/>
+    <sheet name="Unit 1 - simple" sheetId="5" r:id="rId4"/>
+    <sheet name="Unit 2 - necessity" sheetId="6" r:id="rId5"/>
+    <sheet name="Unit 3 - postposition" sheetId="7" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="753">
   <si>
     <t>This spreadsheet is intended to hold sample sentences for the OpinSuomea python program</t>
   </si>
@@ -997,21 +1005,9 @@
     <t>The key was on top of the cabinet</t>
   </si>
   <si>
-    <t xml:space="preserve">Test unit for QA purposes. </t>
-  </si>
-  <si>
-    <t>A unit to test functioning of the program.  Not intended for actual use in game.</t>
-  </si>
-  <si>
     <t>2022.02.03</t>
   </si>
   <si>
-    <t xml:space="preserve">by Marc Perkins.  Designed for QA purposes to test importing of badly formatting spreadsheet text.  </t>
-  </si>
-  <si>
-    <t>U0-1</t>
-  </si>
-  <si>
     <t>asun</t>
   </si>
   <si>
@@ -1021,21 +1017,12 @@
     <t>I live in Finland</t>
   </si>
   <si>
-    <t>U0-2</t>
-  </si>
-  <si>
     <t>asuu</t>
   </si>
   <si>
     <t>Hän ### Ruotsissa</t>
   </si>
   <si>
-    <t>She lives in Sweden</t>
-  </si>
-  <si>
-    <t>U0-3</t>
-  </si>
-  <si>
     <t>menet</t>
   </si>
   <si>
@@ -1043,66 +1030,6 @@
   </si>
   <si>
     <t>You are going to campus.</t>
-  </si>
-  <si>
-    <t>U0-4</t>
-  </si>
-  <si>
-    <t>kävimme</t>
-  </si>
-  <si>
-    <t>Me #### elokuvissa</t>
-  </si>
-  <si>
-    <t>We went to the movies.</t>
-  </si>
-  <si>
-    <t>U0-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[minä] #### lukea tenttin </t>
-  </si>
-  <si>
-    <t>U0-6</t>
-  </si>
-  <si>
-    <t>Mä ### onnellinen</t>
-  </si>
-  <si>
-    <t>U0-7</t>
-  </si>
-  <si>
-    <t>Kissä on ##</t>
-  </si>
-  <si>
-    <t>U0-8</t>
-  </si>
-  <si>
-    <t>kaapi_ pää___</t>
-  </si>
-  <si>
-    <t>U0-9</t>
-  </si>
-  <si>
-    <t>oot</t>
-  </si>
-  <si>
-    <t>Sä ### onnellinen</t>
-  </si>
-  <si>
-    <t>asuvat</t>
-  </si>
-  <si>
-    <t>He ### Ruotsissa</t>
-  </si>
-  <si>
-    <t>They live in Sweden</t>
-  </si>
-  <si>
-    <t>U0-11</t>
-  </si>
-  <si>
-    <t>verbi</t>
   </si>
   <si>
     <t>Simple sentences</t>
@@ -2362,18 +2289,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -2383,7 +2312,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2393,71 +2322,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2647,151 +2547,155 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2799,7 +2703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2807,7 +2711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2815,7 +2719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2823,7 +2727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2831,7 +2735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2839,7 +2743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +2751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2855,7 +2759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2863,7 +2767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2871,7 +2775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2879,7 +2783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -2887,7 +2791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2895,7 +2799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -2903,7 +2807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -2911,7 +2815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -2919,7 +2823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -2927,7 +2831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2935,7 +2839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2943,7 +2847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2951,7 +2855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -2959,7 +2863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2967,7 +2871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -2975,7 +2879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -2983,7 +2887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -2991,7 +2895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2999,7 +2903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -3007,7 +2911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -3015,7 +2919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,7 +2927,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -3031,7 +2935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -3039,7 +2943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>83</v>
       </c>
@@ -3047,7 +2951,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -3055,7 +2959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,7 +2967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -3071,7 +2975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
@@ -3079,7 +2983,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3087,7 +2991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
@@ -3095,7 +2999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -3103,7 +3007,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -3111,7 +3015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -3119,7 +3023,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>103</v>
       </c>
@@ -3127,7 +3031,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>105</v>
       </c>
@@ -3135,7 +3039,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -3143,7 +3047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
@@ -3151,7 +3055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -3159,7 +3063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -3167,7 +3071,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>115</v>
       </c>
@@ -3175,7 +3079,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>117</v>
       </c>
@@ -3183,7 +3087,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
@@ -3191,7 +3095,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>121</v>
       </c>
@@ -3199,7 +3103,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
@@ -3207,7 +3111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
@@ -3215,7 +3119,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
@@ -3223,7 +3127,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>129</v>
       </c>
@@ -3231,7 +3135,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>131</v>
       </c>
@@ -3239,7 +3143,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>133</v>
       </c>
@@ -3247,7 +3151,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>135</v>
       </c>
@@ -3255,7 +3159,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -3263,7 +3167,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>139</v>
       </c>
@@ -3271,7 +3175,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>141</v>
       </c>
@@ -3279,7 +3183,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -3287,7 +3191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>145</v>
       </c>
@@ -3295,7 +3199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
@@ -3303,7 +3207,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
@@ -3311,7 +3215,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>151</v>
       </c>
@@ -3319,7 +3223,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>153</v>
       </c>
@@ -3327,7 +3231,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>155</v>
       </c>
@@ -3335,7 +3239,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>157</v>
       </c>
@@ -3343,7 +3247,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
@@ -3351,7 +3255,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
@@ -3359,7 +3263,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>163</v>
       </c>
@@ -3367,7 +3271,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>165</v>
       </c>
@@ -3375,7 +3279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>167</v>
       </c>
@@ -3383,7 +3287,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>169</v>
       </c>
@@ -3391,7 +3295,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>171</v>
       </c>
@@ -3399,7 +3303,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>173</v>
       </c>
@@ -3407,7 +3311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>175</v>
       </c>
@@ -3415,7 +3319,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>177</v>
       </c>
@@ -3423,7 +3327,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>179</v>
       </c>
@@ -3431,7 +3335,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>181</v>
       </c>
@@ -3439,7 +3343,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>183</v>
       </c>
@@ -3447,7 +3351,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>185</v>
       </c>
@@ -3455,7 +3359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>187</v>
       </c>
@@ -3463,7 +3367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>189</v>
       </c>
@@ -3471,7 +3375,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>191</v>
       </c>
@@ -3479,7 +3383,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>193</v>
       </c>
@@ -3487,7 +3391,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>195</v>
       </c>
@@ -3495,7 +3399,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>197</v>
       </c>
@@ -3503,7 +3407,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>199</v>
       </c>
@@ -3511,7 +3415,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>201</v>
       </c>
@@ -3519,7 +3423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>203</v>
       </c>
@@ -3527,7 +3431,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>205</v>
       </c>
@@ -3535,7 +3439,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>207</v>
       </c>
@@ -3543,7 +3447,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>209</v>
       </c>
@@ -3551,7 +3455,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>211</v>
       </c>
@@ -3559,7 +3463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
@@ -3567,7 +3471,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>215</v>
       </c>
@@ -3575,7 +3479,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>217</v>
       </c>
@@ -3583,7 +3487,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>219</v>
       </c>
@@ -3591,7 +3495,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>221</v>
       </c>
@@ -3599,7 +3503,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>223</v>
       </c>
@@ -3607,7 +3511,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>225</v>
       </c>
@@ -3615,7 +3519,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>227</v>
       </c>
@@ -3623,7 +3527,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>229</v>
       </c>
@@ -3631,7 +3535,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>231</v>
       </c>
@@ -3639,7 +3543,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>233</v>
       </c>
@@ -3647,7 +3551,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>235</v>
       </c>
@@ -3655,7 +3559,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>237</v>
       </c>
@@ -3663,7 +3567,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>239</v>
       </c>
@@ -3671,7 +3575,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>241</v>
       </c>
@@ -3679,7 +3583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>243</v>
       </c>
@@ -3687,7 +3591,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>244</v>
       </c>
@@ -3695,7 +3599,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>246</v>
       </c>
@@ -3703,7 +3607,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>248</v>
       </c>
@@ -3711,7 +3615,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>250</v>
       </c>
@@ -3719,7 +3623,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>252</v>
       </c>
@@ -3727,7 +3631,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>254</v>
       </c>
@@ -3735,7 +3639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>256</v>
       </c>
@@ -3743,7 +3647,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>258</v>
       </c>
@@ -3751,7 +3655,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>260</v>
       </c>
@@ -3759,7 +3663,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>262</v>
       </c>
@@ -3767,7 +3671,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>264</v>
       </c>
@@ -3775,7 +3679,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>266</v>
       </c>
@@ -3783,7 +3687,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>268</v>
       </c>
@@ -3791,7 +3695,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>270</v>
       </c>
@@ -3799,7 +3703,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>272</v>
       </c>
@@ -3807,7 +3711,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>274</v>
       </c>
@@ -3815,7 +3719,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>276</v>
       </c>
@@ -3823,7 +3727,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>278</v>
       </c>
@@ -3831,7 +3735,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>280</v>
       </c>
@@ -3840,33 +3744,34 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="5" max="6" width="24.29"/>
-    <col customWidth="1" min="7" max="7" width="42.0"/>
-    <col customWidth="1" min="8" max="8" width="46.43"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
@@ -3874,7 +3779,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
@@ -3882,7 +3787,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
@@ -3890,7 +3795,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
@@ -3898,7 +3803,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>291</v>
       </c>
@@ -3924,7 +3829,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>299</v>
       </c>
@@ -3948,7 +3853,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>305</v>
       </c>
@@ -3974,7 +3879,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>310</v>
       </c>
@@ -3997,7 +3902,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>315</v>
       </c>
@@ -4020,7 +3925,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>321</v>
       </c>
@@ -4044,68 +3949,70 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="17.29"/>
-    <col customWidth="1" min="6" max="6" width="24.29"/>
-    <col customWidth="1" min="7" max="7" width="42.0"/>
-    <col customWidth="1" min="8" max="8" width="46.43"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B1" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>291</v>
       </c>
@@ -4131,9 +4038,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>300</v>
@@ -4146,18 +4053,18 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>300</v>
@@ -4170,18 +4077,18 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>300</v>
@@ -4194,18 +4101,18 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>300</v>
@@ -4214,22 +4121,21 @@
         <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>177</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>300</v>
@@ -4238,229 +4144,105 @@
         <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>233</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>73</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>361</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.43"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="18.29"/>
-    <col customWidth="1" min="6" max="6" width="10.86"/>
-    <col customWidth="1" min="7" max="7" width="42.0"/>
-    <col customWidth="1" min="8" max="8" width="46.43"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B1" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>291</v>
       </c>
@@ -4486,9 +4268,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>300</v>
@@ -4497,22 +4279,24 @@
         <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>300</v>
@@ -4521,22 +4305,24 @@
         <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>300</v>
@@ -4545,22 +4331,24 @@
         <v>301</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>300</v>
@@ -4569,21 +4357,24 @@
         <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>243</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>300</v>
@@ -4592,21 +4383,24 @@
         <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>300</v>
@@ -4615,81 +4409,709 @@
         <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>195</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="5" max="6" width="24.29"/>
-    <col customWidth="1" min="7" max="7" width="42.0"/>
-    <col customWidth="1" min="8" max="8" width="46.43"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B1" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>291</v>
       </c>
@@ -4715,877 +5137,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="5" max="6" width="24.29"/>
-    <col customWidth="1" min="7" max="7" width="42.0"/>
-    <col customWidth="1" min="8" max="8" width="46.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>300</v>
@@ -5594,21 +5148,21 @@
         <v>316</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>300</v>
@@ -5617,21 +5171,21 @@
         <v>316</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>300</v>
@@ -5640,7 +5194,7 @@
         <v>316</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>318</v>
@@ -5649,12 +5203,12 @@
         <v>319</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>300</v>
@@ -5663,21 +5217,21 @@
         <v>316</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>300</v>
@@ -5686,21 +5240,21 @@
         <v>316</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>300</v>
@@ -5709,21 +5263,21 @@
         <v>316</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>300</v>
@@ -5732,21 +5286,21 @@
         <v>316</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>300</v>
@@ -5755,21 +5309,21 @@
         <v>316</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>300</v>
@@ -5778,21 +5332,21 @@
         <v>316</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>300</v>
@@ -5801,21 +5355,21 @@
         <v>316</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>578</v>
+        <v>551</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>300</v>
@@ -5824,21 +5378,21 @@
         <v>316</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>579</v>
+        <v>552</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>300</v>
@@ -5847,21 +5401,21 @@
         <v>316</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>300</v>
@@ -5870,21 +5424,21 @@
         <v>316</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>300</v>
@@ -5893,21 +5447,21 @@
         <v>316</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>300</v>
@@ -5916,21 +5470,21 @@
         <v>316</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>300</v>
@@ -5939,18 +5493,18 @@
         <v>316</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>300</v>
@@ -5958,19 +5512,19 @@
       <c r="C24" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>607</v>
+      <c r="F24" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>300</v>
@@ -5979,21 +5533,21 @@
         <v>316</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>300</v>
@@ -6002,21 +5556,21 @@
         <v>316</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>300</v>
@@ -6025,21 +5579,21 @@
         <v>316</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>300</v>
@@ -6048,21 +5602,21 @@
         <v>316</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>300</v>
@@ -6071,21 +5625,21 @@
         <v>316</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>300</v>
@@ -6100,15 +5654,15 @@
         <v>323</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>300</v>
@@ -6117,21 +5671,21 @@
         <v>316</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>300</v>
@@ -6140,21 +5694,21 @@
         <v>316</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>300</v>
@@ -6163,21 +5717,21 @@
         <v>316</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>300</v>
@@ -6186,18 +5740,18 @@
         <v>316</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>300</v>
@@ -6206,18 +5760,18 @@
         <v>316</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>300</v>
@@ -6226,21 +5780,21 @@
         <v>316</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>300</v>
@@ -6249,21 +5803,21 @@
         <v>316</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>300</v>
@@ -6272,21 +5826,21 @@
         <v>316</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>300</v>
@@ -6295,21 +5849,21 @@
         <v>316</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>300</v>
@@ -6318,21 +5872,21 @@
         <v>316</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>300</v>
@@ -6342,18 +5896,18 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>300</v>
@@ -6362,18 +5916,18 @@
         <v>316</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>300</v>
@@ -6382,18 +5936,18 @@
         <v>316</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>300</v>
@@ -6402,18 +5956,18 @@
         <v>316</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>300</v>
@@ -6422,24 +5976,24 @@
         <v>316</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>300</v>
@@ -6448,21 +6002,21 @@
         <v>316</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>300</v>
@@ -6471,21 +6025,21 @@
         <v>316</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>300</v>
@@ -6494,21 +6048,21 @@
         <v>316</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>300</v>
@@ -6517,18 +6071,18 @@
         <v>316</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>300</v>
@@ -6537,21 +6091,21 @@
         <v>316</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>300</v>
@@ -6560,21 +6114,21 @@
         <v>316</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>733</v>
+        <v>706</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>300</v>
@@ -6583,21 +6137,21 @@
         <v>316</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>734</v>
+        <v>707</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>735</v>
+        <v>708</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>300</v>
@@ -6606,21 +6160,21 @@
         <v>316</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>300</v>
@@ -6629,18 +6183,18 @@
         <v>316</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>300</v>
@@ -6649,18 +6203,18 @@
         <v>316</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>300</v>
@@ -6669,21 +6223,21 @@
         <v>316</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>300</v>
@@ -6692,18 +6246,18 @@
         <v>316</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>300</v>
@@ -6712,21 +6266,21 @@
         <v>316</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>319</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>300</v>
@@ -6735,21 +6289,21 @@
         <v>316</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>300</v>
@@ -6758,21 +6312,21 @@
         <v>316</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>768</v>
+        <v>741</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>300</v>
@@ -6781,18 +6335,18 @@
         <v>316</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>771</v>
+        <v>744</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>773</v>
+        <v>746</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>300</v>
@@ -6801,18 +6355,18 @@
         <v>316</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>774</v>
+        <v>747</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>300</v>
@@ -6821,16 +6375,16 @@
         <v>316</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>775</v>
+        <v>748</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>779</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>